--- a/static/excel/samples/department_and courses_sample.xlsx
+++ b/static/excel/samples/department_and courses_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODHOPE ORDU\Documents\excel_converter\static\excel\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BC0755-3DCD-4AA6-977F-C9FA04973585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C0F192-E6ED-4661-A224-553AE58B0B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E4E2A758-F7D2-4D95-B1D3-14046877250E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Course Code</t>
   </si>
@@ -124,9 +124,6 @@
     <t>spreadsheet_template</t>
   </si>
   <si>
-    <t>summarysheet_template</t>
-  </si>
-  <si>
     <t>Delete dept:</t>
   </si>
   <si>
@@ -134,6 +131,15 @@
   </si>
   <si>
     <t>Info</t>
+  </si>
+  <si>
+    <t>summary_template</t>
+  </si>
+  <si>
+    <t>Department long:</t>
+  </si>
+  <si>
+    <t>Department of Mechanical Engineering</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,6 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -511,8 +518,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{556EEED0-D757-48F1-842F-6D540C0C98B3}" name="S1.1" displayName="S1.1" ref="A11:F17" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
-  <autoFilter ref="A11:F17" xr:uid="{556EEED0-D757-48F1-842F-6D540C0C98B3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{556EEED0-D757-48F1-842F-6D540C0C98B3}" name="S1.1" displayName="S1.1" ref="A12:F18" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
+  <autoFilter ref="A12:F18" xr:uid="{556EEED0-D757-48F1-842F-6D540C0C98B3}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2B18A659-6CC5-4D60-8714-0F7FAAF6612B}" name="Course Code" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{4C05039F-807A-4C93-9807-A05F1F6DB41F}" name="Course Title" dataDxfId="1" totalsRowDxfId="0"/>
@@ -822,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483A53F1-3062-48F0-8158-EFF2FBCAC9C2}">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -841,7 +848,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
@@ -881,132 +888,122 @@
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A7" s="9"/>
-      <c r="B7" s="24" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+      <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="16" t="b">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
-      <c r="A9" s="21" t="s">
+    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+      <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.7">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="11">
-        <v>3</v>
-      </c>
-      <c r="D13" s="11">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
-        <v>2</v>
+      <c r="F13" s="4">
+        <v>0</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="11">
         <v>3</v>
@@ -1020,14 +1017,15 @@
       <c r="F14" s="11">
         <v>2</v>
       </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A15" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11">
         <v>3</v>
@@ -1036,18 +1034,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
         <v>2</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A16" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11">
         <v>3</v>
@@ -1059,15 +1058,15 @@
         <v>2</v>
       </c>
       <c r="F16" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11">
         <v>3</v>
@@ -1083,12 +1082,32 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
